--- a/GATEWAY/A1#111ACSINFORMAT/ACSINFORMATICA/MEDICALSUITE/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111ACSINFORMAT/ACSINFORMATICA/MEDICALSUITE/1/report-checklist.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="207">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -927,6 +927,23 @@
   </si>
   <si>
     <t>Per il test è stato "forzato" un valore non corretto in cda.participant.associatedEntity.code.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguono passaggi effettuati nel flusso radiologico : 
+ 1) il medico radiologo inserisce il referto ed esegue il comando di generazione del referto in PDF
+    - il programma genera ed inserisce il documento clinico elettronico ( CDA2 ) nel PDF
+    - il PDF viene firmato
+    - il programma genera un evento asincrono gestito successivamente dal nostro servizio windows ( spiegato più avanti il funzionamento )
+ 2) il medico passa al successivo referto senza attendere la validazione.
+Seguono passaggi effettuati nel servizio Windows :
+ 1) il servizio Windows riceve l' evento generato in precedenza e per ogni documento :
+    - Effettua la validazione e registra l' esito con o senza errore, oppure se non è possibile raggiungere il servizio di GATEWAY.
+    - Effettua l' invio al repository regionale del documento se validazione confermata. ( l' invio è posticipabile tramite parametro )
+Successivamente dal cruscotto apposito di gestione del fascicolo sanitario si visualizzano gli eventuali errori ricevuti sia in fase di validazione e sia in fase di invio al repository regionale.
+Segue lista di gestione a seconda dei seguenti tipi di errore:
+- Errore di timeout e/o servizi non raggiungibili: L' applicativo provvederà automaticamente a richiamare il servizio di GATEWAY  e/o reinvio al repositoty aziendale.
+- Errori derivati da campi non correttamente compilati: verrà notificato al personale di competenza ( l' azienda produttrice del software nel caso di presenza di bugs) di correggere la problematica e successivamente far rigenerare il referto dal medico .
+</t>
   </si>
 </sst>
 </file>
@@ -3836,10 +3853,10 @@
   <dimension ref="A1:T653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4662,7 +4679,7 @@
         <v>68</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="Q23" s="25"/>
       <c r="R23" s="26"/>
@@ -5096,7 +5113,7 @@
         <v>68</v>
       </c>
       <c r="P34" s="25" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="Q34" s="25"/>
       <c r="R34" s="26"/>

--- a/GATEWAY/A1#111ACSINFORMAT/ACSINFORMATICA/MEDICALSUITE/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111ACSINFORMAT/ACSINFORMATICA/MEDICALSUITE/1/report-checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giuseppe\REGIONI\GENERICO\FSE2\ACCREDITAMENTO_SOGEI_RAD_RSA\MEDICAL SUITE\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giuseppe\REGIONI\GENERICO\FSE2\ACCREDITAMENTO_SOGEI_RAD_RSA\MEDICALSUITE\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -984,22 +984,22 @@
     <t>2.16.840.1.113883.2.9.2.160.4.4.704fe8c5906d377795587ba6175bf2f81171d991ad1be0ef1d73f80cf8432209.ff31659a8c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-12-31T09:18:19</t>
-  </si>
-  <si>
-    <t>0454c7a46fab5d01f3aebefb8a88acf7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.0bbc7b6f5f461213adce866c42c628e084f69b6c3e94b38caf7532a46150993a.12c71c6e53^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-12-31T09:19:18</t>
-  </si>
-  <si>
-    <t>eee4ec1190008ab2b3ba81cdef8e160e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.ae014440fbe365f9608d327d176a690d1c42a908a9ccf235097b93601b16f1a4.f3fb1aa420^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2026-01-07T11:08:33</t>
+  </si>
+  <si>
+    <t>ea7ade7007e860a544a8650d591f1116</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.9aed92372feac7490124aac2d0426497be942c6216884e1d7d36ea102294abdb.0d6ca90090^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2026-01-07T11:11:21</t>
+  </si>
+  <si>
+    <t>22ec5c54ebc16e2e348205546f14f91c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.107f32e0b04cd7d1c460d0e985127a0a476efbc86f4ce9a831cb1fb49868dd59.129ec5ed30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3036,7 +3036,7 @@
   <dimension ref="A1:W607"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5220,7 +5220,7 @@
         <v>148</v>
       </c>
       <c r="F51" s="29">
-        <v>46022</v>
+        <v>46029</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>227</v>
@@ -5267,7 +5267,7 @@
         <v>149</v>
       </c>
       <c r="F52" s="29">
-        <v>46022</v>
+        <v>46029</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>230</v>
@@ -11660,9 +11660,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11810,26 +11813,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11853,9 +11845,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111ACSINFORMAT/ACSINFORMATICA/MEDICALSUITE/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111ACSINFORMAT/ACSINFORMATICA/MEDICALSUITE/1/report-checklist.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="232">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -840,15 +840,6 @@
 Continuare comunque con la generazione del referto?</t>
   </si>
   <si>
-    <t>L' errore di timeout  viene mostrato al medico/operatore nella fase di generazione del PDF del referto consentendo comunque la finalizzazione del referto firmandolo e registrarlo.
-Non è necessario alcun intervento da parte degli operatori in backoffice  dato che  nel task asincrono di invio documenti al FSE verrà chiamato automaticamente il servizio di validazione se manca la validazione: qualsiasi tipo errore restituito in questa fase  ( anche se si tratta di timeout )  verrà registrato per consentire all' operatore in backoffice di gestire l' errore.</t>
-  </si>
-  <si>
-    <t>Nella fase di generazione del PDF del referto viene contattato il servizio di validazione   e l' eventuale errore di validazione ( qualsiasi tipo di errore sia ) viene sempre mostrato al medico/operatore  consentendogli comunque di continuare con la firma del PDF generato.
-L' errore verrà preso in carico da un operatore in backoffice , se L' errore è di timeout o simili non è necessario intervenire come spiegato in precedenza sul test Case di timeout, mentre per altri tipi di errore una volta che la problematica viene risolta si dà avviso al medico refertante di rigenerare il PDF del referto ( il precedente PDF generato verrà logicamente sosituito dal nuovo PDF ) e conseguentemente richiamare nuovamente il servizio di validazione .
-In seguito, c'è il task asincrono per l' invio automatico del documenti al FSE: se la validazione non risulta contatterà prima automaticamente il servizio di validazione , l' eventuale errore verrà registrato per essere preso in carico in backoffice.</t>
-  </si>
-  <si>
     <t>Errore su validazione:
 "{title}": Errore semantico.
 "{detail}": [ERRORE-b53| Sotto-sezione Allergie: l'elemento entry/act/entryRelationship/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato ]
@@ -1000,6 +991,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.160.4.4.107f32e0b04cd7d1c460d0e985127a0a476efbc86f4ce9a831cb1fb49868dd59.129ec5ed30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Premesse : 
+ 1)Quando il medico refertante genera il PDF del referto contestualmente in asincrono viene inviato il documento al servizio di validazione , l' esito positivo o negativo viene registrato per essere visionato in backoffice.
+ 2)Un task in background si occuperà di inviare automaticamente il documento al FSE previa validazione eseguita con esito positivo, eventuale errore verrà registrato per essere visionato in backoffice.
+Gli errori sono gestiti in backoffice da apposita sezione del programma dove è possibile visionare i documenti in errore per effettuare le opportune operazioni :
+-Inviare manualmente il documento al servizio di validazione nel caso di timeout occorso in precedenza
+-Inviare manualmente il documento al FSE nel caso di timeout o problemi di connessione occorsi durante l' invio dal task in background.
+-Per altri tipi di errori ( es. dati non corretti ) dopo la correzione si avvisa il medico refertante di rigenerare il PDF del referto ( il precedente PDF generato se presente verrà logicamente sostituito dal nuovo PDF ) e contestualmente il programma invierà il nuovo documento al servizio di validazione (Premessa n.1).</t>
   </si>
 </sst>
 </file>
@@ -3035,8 +3035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W607"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D3" s="46"/>
       <c r="F3" s="6"/>
@@ -3174,7 +3174,7 @@
       <c r="A5" s="52"/>
       <c r="B5" s="53"/>
       <c r="C5" s="54" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" s="46"/>
       <c r="F5" s="6"/>
@@ -3262,7 +3262,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="1:23" s="42" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="42" customFormat="1" ht="170.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>14</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>46022</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="34"/>
@@ -3454,16 +3454,16 @@
         <v>186</v>
       </c>
       <c r="P12" s="30" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="30" t="s">
         <v>100</v>
       </c>
       <c r="R12" s="30" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="S12" s="30" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="T12" s="30"/>
       <c r="U12" s="31" t="s">
@@ -3863,13 +3863,13 @@
         <v>46022</v>
       </c>
       <c r="G22" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="I22" s="34" t="s">
         <v>199</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>201</v>
       </c>
       <c r="J22" s="30" t="s">
         <v>51</v>
@@ -3883,7 +3883,7 @@
         <v>51</v>
       </c>
       <c r="O22" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P22" s="30" t="s">
         <v>51</v>
@@ -3892,10 +3892,10 @@
         <v>100</v>
       </c>
       <c r="R22" s="30" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="S22" s="30" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="T22" s="30"/>
       <c r="U22" s="31"/>
@@ -3924,13 +3924,13 @@
         <v>46022</v>
       </c>
       <c r="G23" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="I23" s="34" t="s">
         <v>202</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>204</v>
       </c>
       <c r="J23" s="30" t="s">
         <v>51</v>
@@ -3944,7 +3944,7 @@
         <v>51</v>
       </c>
       <c r="O23" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P23" s="30" t="s">
         <v>51</v>
@@ -3953,10 +3953,10 @@
         <v>100</v>
       </c>
       <c r="R23" s="30" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="S23" s="30" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="T23" s="30"/>
       <c r="U23" s="31"/>
@@ -4026,13 +4026,13 @@
         <v>46022</v>
       </c>
       <c r="G25" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="I25" s="34" t="s">
         <v>205</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>207</v>
       </c>
       <c r="J25" s="30" t="s">
         <v>51</v>
@@ -4046,7 +4046,7 @@
         <v>51</v>
       </c>
       <c r="O25" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P25" s="30" t="s">
         <v>51</v>
@@ -4055,10 +4055,10 @@
         <v>100</v>
       </c>
       <c r="R25" s="30" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="S25" s="30" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="T25" s="30"/>
       <c r="U25" s="31"/>
@@ -4087,13 +4087,13 @@
         <v>46022</v>
       </c>
       <c r="G26" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="I26" s="34" t="s">
         <v>208</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>210</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>51</v>
@@ -4107,7 +4107,7 @@
         <v>51</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P26" s="30" t="s">
         <v>51</v>
@@ -4116,10 +4116,10 @@
         <v>100</v>
       </c>
       <c r="R26" s="30" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="S26" s="30" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="T26" s="30"/>
       <c r="U26" s="31"/>
@@ -4271,13 +4271,13 @@
         <v>46022</v>
       </c>
       <c r="G30" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="I30" s="34" t="s">
         <v>211</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="I30" s="34" t="s">
-        <v>213</v>
       </c>
       <c r="J30" s="30" t="s">
         <v>51</v>
@@ -4318,13 +4318,13 @@
         <v>46022</v>
       </c>
       <c r="G31" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="I31" s="34" t="s">
         <v>214</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="I31" s="34" t="s">
-        <v>216</v>
       </c>
       <c r="J31" s="30" t="s">
         <v>51</v>
@@ -4488,7 +4488,7 @@
         <v>46022</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="34"/>
@@ -4507,16 +4507,16 @@
         <v>186</v>
       </c>
       <c r="P35" s="30" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="Q35" s="30" t="s">
         <v>100</v>
       </c>
       <c r="R35" s="30" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="S35" s="30" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="T35" s="30"/>
       <c r="U35" s="31" t="s">
@@ -4915,13 +4915,13 @@
         <v>46022</v>
       </c>
       <c r="G45" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="I45" s="34" t="s">
         <v>218</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="I45" s="34" t="s">
-        <v>220</v>
       </c>
       <c r="J45" s="30" t="s">
         <v>51</v>
@@ -4935,7 +4935,7 @@
         <v>51</v>
       </c>
       <c r="O45" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P45" s="30" t="s">
         <v>51</v>
@@ -4944,10 +4944,10 @@
         <v>100</v>
       </c>
       <c r="R45" s="30" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="S45" s="30" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="T45" s="30"/>
       <c r="U45" s="31"/>
@@ -5017,13 +5017,13 @@
         <v>46022</v>
       </c>
       <c r="G47" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I47" s="34" t="s">
         <v>221</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="I47" s="34" t="s">
-        <v>223</v>
       </c>
       <c r="J47" s="30" t="s">
         <v>51</v>
@@ -5037,7 +5037,7 @@
         <v>51</v>
       </c>
       <c r="O47" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P47" s="30" t="s">
         <v>51</v>
@@ -5046,10 +5046,10 @@
         <v>100</v>
       </c>
       <c r="R47" s="30" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="S47" s="30" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="T47" s="30"/>
       <c r="U47" s="31"/>
@@ -5078,13 +5078,13 @@
         <v>46022</v>
       </c>
       <c r="G48" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="I48" s="34" t="s">
         <v>224</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="I48" s="34" t="s">
-        <v>226</v>
       </c>
       <c r="J48" s="30" t="s">
         <v>51</v>
@@ -5098,7 +5098,7 @@
         <v>51</v>
       </c>
       <c r="O48" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P48" s="30" t="s">
         <v>51</v>
@@ -5107,10 +5107,10 @@
         <v>100</v>
       </c>
       <c r="R48" s="30" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="S48" s="30" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="T48" s="30"/>
       <c r="U48" s="31"/>
@@ -5223,13 +5223,13 @@
         <v>46029</v>
       </c>
       <c r="G51" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="I51" s="34" t="s">
         <v>227</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="I51" s="34" t="s">
-        <v>229</v>
       </c>
       <c r="J51" s="30" t="s">
         <v>51</v>
@@ -5270,13 +5270,13 @@
         <v>46029</v>
       </c>
       <c r="G52" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="I52" s="34" t="s">
         <v>230</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="I52" s="34" t="s">
-        <v>232</v>
       </c>
       <c r="J52" s="30" t="s">
         <v>51</v>
@@ -9397,7 +9397,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M10:N55 J10:J55 P10:Q55 R10:R34 R36:R55</xm:sqref>
+          <xm:sqref>M10:N55 J10:J55 P10:R55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
@@ -11660,12 +11660,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11813,15 +11810,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11845,17 +11853,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="295b7897-c886-40bf-9750-5782b814c3e4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
